--- a/config_9.29/activity_year_config.xlsx
+++ b/config_9.29/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>id|行号</t>
   </si>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"act_031_gqfl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
   </si>
   <si>
@@ -352,6 +348,18 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqflmfs_bg_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfl","share_link"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -762,10 +770,10 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1553,7 @@
         <v>1601913599</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1601,7 +1609,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1630,16 +1638,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1657,7 +1665,7 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:22 16384:16384" x14ac:dyDescent="0.2">

--- a/config_9.29/activity_year_config.xlsx
+++ b/config_9.29/activity_year_config.xlsx
@@ -324,10 +324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>“act_031_wxhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_031_gqfd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>"act_031_gqfl","share_link"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_wxhhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -770,10 +770,10 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1553,7 +1553,7 @@
         <v>1601913599</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>23</v>
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>49</v>
@@ -1609,7 +1609,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>23</v>
@@ -1638,16 +1638,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1665,7 +1665,7 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
